--- a/RESULTS/SET 1 [0..5] Single/020.0%/BE.xlsx
+++ b/RESULTS/SET 1 [0..5] Single/020.0%/BE.xlsx
@@ -17,9 +17,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>Feature index</t>
   </si>
@@ -89,196 +86,226 @@
     <t>Mallow Test</t>
   </si>
   <si>
+    <t>040055</t>
+  </si>
+  <si>
+    <t>O-O</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>004100</t>
+  </si>
+  <si>
+    <t>010155</t>
+  </si>
+  <si>
+    <t>O-H</t>
+  </si>
+  <si>
+    <t>001101</t>
+  </si>
+  <si>
+    <t>080055</t>
+  </si>
+  <si>
+    <t>008100</t>
+  </si>
+  <si>
+    <t>100055</t>
+  </si>
+  <si>
+    <t>010100</t>
+  </si>
+  <si>
+    <t>011155</t>
+  </si>
+  <si>
+    <t>H-H</t>
+  </si>
+  <si>
+    <t>001111</t>
+  </si>
+  <si>
+    <t>120055</t>
+  </si>
+  <si>
+    <t>012100</t>
+  </si>
+  <si>
+    <t>130055</t>
+  </si>
+  <si>
+    <t>013100</t>
+  </si>
+  <si>
+    <t>140055</t>
+  </si>
+  <si>
+    <t>014100</t>
+  </si>
+  <si>
+    <t>150055</t>
+  </si>
+  <si>
+    <t>015100</t>
+  </si>
+  <si>
+    <t>151155</t>
+  </si>
+  <si>
+    <t>015111</t>
+  </si>
+  <si>
+    <t>021155</t>
+  </si>
+  <si>
+    <t>002111</t>
+  </si>
+  <si>
+    <t>070155</t>
+  </si>
+  <si>
+    <t>007101</t>
+  </si>
+  <si>
+    <t>090155</t>
+  </si>
+  <si>
+    <t>009101</t>
+  </si>
+  <si>
+    <t>100155</t>
+  </si>
+  <si>
+    <t>010101</t>
+  </si>
+  <si>
+    <t>110155</t>
+  </si>
+  <si>
+    <t>011101</t>
+  </si>
+  <si>
+    <t>030055</t>
+  </si>
+  <si>
+    <t>003100</t>
+  </si>
+  <si>
+    <t>070055</t>
+  </si>
+  <si>
+    <t>007100</t>
+  </si>
+  <si>
+    <t>110055</t>
+  </si>
+  <si>
+    <t>011100</t>
+  </si>
+  <si>
+    <t>060155</t>
+  </si>
+  <si>
+    <t>006101</t>
+  </si>
+  <si>
+    <t>050155</t>
+  </si>
+  <si>
+    <t>005101</t>
+  </si>
+  <si>
+    <t>050055</t>
+  </si>
+  <si>
+    <t>005100</t>
+  </si>
+  <si>
+    <t>031155</t>
+  </si>
+  <si>
+    <t>003111</t>
+  </si>
+  <si>
+    <t>101155</t>
+  </si>
+  <si>
+    <t>010111</t>
+  </si>
+  <si>
+    <t>020055</t>
+  </si>
+  <si>
+    <t>002100</t>
+  </si>
+  <si>
+    <t>061155</t>
+  </si>
+  <si>
+    <t>006111</t>
+  </si>
+  <si>
+    <t>071155</t>
+  </si>
+  <si>
+    <t>007111</t>
+  </si>
+  <si>
+    <t>041155</t>
+  </si>
+  <si>
+    <t>004111</t>
+  </si>
+  <si>
+    <t>020155</t>
+  </si>
+  <si>
+    <t>002101</t>
+  </si>
+  <si>
+    <t>060055</t>
+  </si>
+  <si>
+    <t>006100</t>
+  </si>
+  <si>
+    <t>130155</t>
+  </si>
+  <si>
+    <t>013101</t>
+  </si>
+  <si>
+    <t>150155</t>
+  </si>
+  <si>
+    <t>015101</t>
+  </si>
+  <si>
+    <t>010055</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>091155</t>
+  </si>
+  <si>
+    <t>009111</t>
+  </si>
+  <si>
+    <t>051155</t>
+  </si>
+  <si>
+    <t>005111</t>
+  </si>
+  <si>
     <t>030155</t>
   </si>
   <si>
-    <t>O-H</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>003101</t>
-  </si>
-  <si>
-    <t>011155</t>
-  </si>
-  <si>
-    <t>H-H</t>
-  </si>
-  <si>
-    <t>001111</t>
-  </si>
-  <si>
-    <t>040155</t>
-  </si>
-  <si>
-    <t>004101</t>
-  </si>
-  <si>
-    <t>050155</t>
-  </si>
-  <si>
-    <t>005101</t>
-  </si>
-  <si>
-    <t>070155</t>
-  </si>
-  <si>
-    <t>007101</t>
-  </si>
-  <si>
-    <t>090155</t>
-  </si>
-  <si>
-    <t>009101</t>
-  </si>
-  <si>
-    <t>100155</t>
-  </si>
-  <si>
-    <t>010101</t>
-  </si>
-  <si>
-    <t>110155</t>
-  </si>
-  <si>
-    <t>011101</t>
-  </si>
-  <si>
-    <t>120155</t>
-  </si>
-  <si>
-    <t>012101</t>
-  </si>
-  <si>
-    <t>010055</t>
-  </si>
-  <si>
-    <t>O-O</t>
-  </si>
-  <si>
-    <t>001100</t>
-  </si>
-  <si>
-    <t>140155</t>
-  </si>
-  <si>
-    <t>014101</t>
-  </si>
-  <si>
-    <t>110055</t>
-  </si>
-  <si>
-    <t>011100</t>
-  </si>
-  <si>
-    <t>021155</t>
-  </si>
-  <si>
-    <t>002111</t>
-  </si>
-  <si>
-    <t>121155</t>
-  </si>
-  <si>
-    <t>012111</t>
-  </si>
-  <si>
-    <t>020055</t>
-  </si>
-  <si>
-    <t>002100</t>
-  </si>
-  <si>
-    <t>060155</t>
-  </si>
-  <si>
-    <t>006101</t>
-  </si>
-  <si>
-    <t>130155</t>
-  </si>
-  <si>
-    <t>013101</t>
-  </si>
-  <si>
-    <t>150055</t>
-  </si>
-  <si>
-    <t>015100</t>
-  </si>
-  <si>
-    <t>031155</t>
-  </si>
-  <si>
-    <t>003111</t>
-  </si>
-  <si>
-    <t>080155</t>
-  </si>
-  <si>
-    <t>008101</t>
-  </si>
-  <si>
-    <t>140055</t>
-  </si>
-  <si>
-    <t>014100</t>
-  </si>
-  <si>
-    <t>010155</t>
-  </si>
-  <si>
-    <t>001101</t>
-  </si>
-  <si>
-    <t>091155</t>
-  </si>
-  <si>
-    <t>009111</t>
-  </si>
-  <si>
-    <t>041155</t>
-  </si>
-  <si>
-    <t>004111</t>
-  </si>
-  <si>
-    <t>101155</t>
-  </si>
-  <si>
-    <t>010111</t>
-  </si>
-  <si>
-    <t>130055</t>
-  </si>
-  <si>
-    <t>013100</t>
-  </si>
-  <si>
-    <t>120055</t>
-  </si>
-  <si>
-    <t>012100</t>
-  </si>
-  <si>
-    <t>090055</t>
-  </si>
-  <si>
-    <t>009100</t>
-  </si>
-  <si>
-    <t>070055</t>
-  </si>
-  <si>
-    <t>007100</t>
-  </si>
-  <si>
-    <t>020155</t>
-  </si>
-  <si>
-    <t>002101</t>
   </si>
 </sst>
 </file>
@@ -702,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -711,7 +738,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -720,33 +747,33 @@
         <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-53.34118649400627</v>
+        <v>105.8068433247047</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>2.7160645180626e-07</v>
+        <v>2.982229024412201e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005211587587350519</v>
+        <v>0.0005460978872337999</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9488050836617595</v>
+        <v>0.9322723948791977</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9426121502337466</v>
+        <v>0.924079539421036</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>10.71659535004975</v>
+        <v>46.77435858184838</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -755,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -779,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09240756946166773</v>
+        <v>-0.1623494401485458</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -798,7 +825,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -807,7 +834,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
@@ -816,13 +843,13 @@
         <v>28</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>594.5907358373494</v>
+        <v>-210222.3057942659</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -841,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -850,7 +877,7 @@
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -859,13 +886,13 @@
         <v>30</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-2268.264681205897</v>
+        <v>9356463.742100477</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -884,22 +911,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E6" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -908,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>19318.8114127264</v>
+        <v>0.1087283643411325</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -927,31 +954,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-309877.9616600786</v>
+        <v>-341089342.5094306</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -970,31 +997,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1046993.695937611</v>
+        <v>1514650555.155483</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -1013,31 +1040,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-1530541.452941503</v>
+        <v>-2657941243.133238</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -1056,31 +1083,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>943212.3748863573</v>
+        <v>1720084231.150266</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -1099,16 +1126,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E11" t="n">
-        <v>-1</v>
+        <v>-15</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1117,13 +1144,13 @@
         <v>43</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3777278808411211</v>
+        <v>27.98078393936157</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -1142,16 +1169,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E12" t="n">
-        <v>-14</v>
+        <v>-2</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -1166,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>-176564.5271261747</v>
+        <v>-0.07244372367858887</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -1185,16 +1212,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -1203,13 +1230,13 @@
         <v>47</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>397.2660030926527</v>
+        <v>25.71388244628906</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -1228,7 +1255,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>48</v>
@@ -1237,7 +1264,7 @@
         <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -1252,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.05204893671907485</v>
+        <v>-416.710586309433</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -1271,7 +1298,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
@@ -1280,7 +1307,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -1295,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.064732796148746</v>
+        <v>925.8655246496201</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -1314,16 +1341,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E16" t="n">
-        <v>-2</v>
+        <v>-11</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -1332,13 +1359,13 @@
         <v>53</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.2407902192790061</v>
+        <v>-580.3111510276794</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -1441,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -1453,7 +1480,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -1462,27 +1489,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06478610959914757</v>
+        <v>0.06289745963072051</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.282335075398659e-07</v>
+        <v>3.702715720853153e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005729166671863072</v>
+        <v>0.0006084994429622062</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9381314882391046</v>
+        <v>0.9159098559622001</v>
       </c>
       <c r="O2" t="n">
-        <v>0.935340427558162</v>
+        <v>0.9121163156296678</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>28.38842117431527</v>
+        <v>80.66480091513601</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -1494,10 +1521,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -1506,7 +1533,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -1515,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1246232392726046</v>
+        <v>-0.1225751684381619</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1537,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -1549,7 +1576,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -1558,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.242904349467549</v>
+        <v>0.2394724944374291</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1577,31 +1604,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-3</v>
+        <v>-15</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01887308640484996</v>
+        <v>19575.75218282442</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1620,31 +1647,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E6" t="n">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>10828.62496999825</v>
+        <v>-0.1063423113584675</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -1663,22 +1690,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -1687,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.108344031812954</v>
+        <v>32.6888541450135</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -1787,13 +1814,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -1802,7 +1829,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -1811,27 +1838,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1089001228457245</v>
+        <v>0.05625811088028666</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.629431009901087e-07</v>
+        <v>4.440641581449237e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006024475919033195</v>
+        <v>0.0006663813909053311</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9315891004533865</v>
+        <v>0.8991512667037073</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9290364549479159</v>
+        <v>0.8953882542672784</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>44.21646495957727</v>
+        <v>122.1178046081389</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -1840,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -1864,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05294207928258253</v>
+        <v>-0.1117199161646623</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1886,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -1898,7 +1925,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -1907,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2240866294145692</v>
+        <v>0.2255558124005794</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1929,10 +1956,10 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
         <v>-15</v>
@@ -1941,7 +1968,7 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -1950,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>26855.47766345044</v>
+        <v>21483.68818885193</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1969,31 +1996,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-7.306125236144593</v>
+        <v>-0.0206679677729035</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2006,666 +2033,6 @@
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.1282149927319181</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>4.805096854563482e-07</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0006931880592280483</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.9094290544902106</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.9067454709195502</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>100.3581647206229</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.06204125254183934</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.2631923162531144</v>
-      </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8.613369735889222</v>
-      </c>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.07621218449322292</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>1.302670625876451e-06</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.001141345971157059</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.7544604950857386</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.7490441824773358</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>500.5590912981041</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.03713631866590542</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.154649101842507</v>
-      </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.01638773024578359</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>2.069971984774587e-06</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.001438739720997021</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.6098323810856022</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.6041365034372168</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>879.6882709024816</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.003533846877730282</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2753,13 +2120,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -2768,36 +2135,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2514540567496052</v>
+        <v>-0.1730325905108074</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>2.757277175810133e-07</v>
+        <v>3.039770950357604e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005250978171550643</v>
+        <v>0.0005513411784328832</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9480282690642305</v>
+        <v>0.9309655948962255</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9422074351994244</v>
+        <v>0.9232337415246028</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>11.52869520357563</v>
+        <v>49.07770468787341</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -2806,10 +2173,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -2821,16 +2188,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-34.54517233827374</v>
+        <v>16.23342415895107</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -2852,10 +2219,10 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -2864,7 +2231,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -2873,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07091790601617021</v>
+        <v>0.1063056259708364</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -2892,31 +2259,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>292.3335265706346</v>
+        <v>-13379.41041054555</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2935,31 +2302,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-9677.717781189787</v>
+        <v>42668955.79106467</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2978,31 +2345,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>40978.09374190232</v>
+        <v>-379353692.6130983</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -3021,31 +2388,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-476942.5734972261</v>
+        <v>1334028273.647424</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -3064,31 +2431,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1622100.831247514</v>
+        <v>-2163849808.683738</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -3107,31 +2474,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-2575857.617291356</v>
+        <v>1352233952.224863</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -3150,22 +2517,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E11" t="n">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -3174,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2068269.014943768</v>
+        <v>29.15501189231873</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3193,22 +2560,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -3217,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>-677510.2329624336</v>
+        <v>14.500065356493</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -3236,31 +2603,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>-15</v>
+        <v>-6</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>11784.27552076901</v>
+        <v>-17.4086446762085</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -3279,22 +2646,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
       <c r="E14" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
@@ -3303,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.04174128966405988</v>
+        <v>-0.06921160221099854</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -3322,22 +2689,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
       </c>
       <c r="E15" t="n">
-        <v>-12</v>
+        <v>-5</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
@@ -3346,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.309224700089544</v>
+        <v>5.451724529266357</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -3446,13 +2813,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -3461,36 +2828,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2468304418742819</v>
+        <v>-0.1202107632441646</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>2.856026265129101e-07</v>
+        <v>3.335556167558519e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005344180259992266</v>
+        <v>0.0005775427401983786</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9461669541607951</v>
+        <v>0.9242481951837395</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9406127510186549</v>
+        <v>0.9164325327820618</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>14.96824832345069</v>
+        <v>64.15417568285434</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -3499,10 +2866,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -3514,16 +2881,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-21.76025486112463</v>
+        <v>26.755435312513</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -3542,22 +2909,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -3566,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2893.913685801433</v>
+        <v>0.2423533387959729</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -3585,31 +2952,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07121486477867905</v>
+        <v>-608.9719349274858</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -3628,22 +2995,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E6" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -3652,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-26104.54109739806</v>
+        <v>-0.3218190295656917</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -3671,22 +3038,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -3695,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>103110.2754675255</v>
+        <v>3.37050447318996</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -3714,31 +3081,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-182755.5733976776</v>
+        <v>26881647.38390525</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -3757,31 +3124,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>541688.3222532319</v>
+        <v>-257260191.268566</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -3800,31 +3167,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-732337.8157208995</v>
+        <v>953705664.0554441</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -3843,31 +3210,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="n">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>651296.5245555332</v>
+        <v>-1609834432.92076</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3886,31 +3253,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>-368058.341703922</v>
+        <v>1037958595.18099</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -3929,31 +3296,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>11642.41303880803</v>
+        <v>11.64210903644562</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -3972,7 +3339,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>48</v>
@@ -3981,7 +3348,7 @@
         <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -3996,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.01944837428163737</v>
+        <v>-7.195979058742523</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -4096,51 +3463,51 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05604370327539489</v>
+        <v>1.281535456065341</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>2.942399046835963e-07</v>
+        <v>3.170295122274591e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005424388487964301</v>
+        <v>0.0005630537383123028</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9445389194421876</v>
+        <v>0.9280013391325168</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9392985023816069</v>
+        <v>0.9211983160584239</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>17.91475281927468</v>
+        <v>54.66076540969554</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -4149,22 +3516,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -4173,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2262529892915102</v>
+        <v>56.60069188976254</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -4192,22 +3559,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -4216,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-30.61746171841374</v>
+        <v>-14.83810040730535</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -4235,22 +3602,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E5" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -4259,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>265.7518255391833</v>
+        <v>16.06886781178455</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -4278,22 +3645,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E6" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -4302,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-9961.621496175583</v>
+        <v>2.877985263118187</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -4321,22 +3688,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -4345,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>53585.75450261724</v>
+        <v>0.2533969080301626</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -4364,22 +3731,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -4388,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-108876.8727000005</v>
+        <v>-0.2427110517954139</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -4407,22 +3774,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>-14</v>
+        <v>-4</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -4431,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>5493.226708522646</v>
+        <v>-7.321070414749383</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -4450,22 +3817,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E10" t="n">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -4474,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>370023.8938414889</v>
+        <v>-0.6077073312654919</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -4493,22 +3860,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11" t="n">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -4517,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-521298.0402950408</v>
+        <v>2.894281668529949</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -4536,22 +3903,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -4560,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>491269.5124236117</v>
+        <v>-1.080047209686612</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -4579,22 +3946,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>-14</v>
+        <v>-2</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
@@ -4603,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>-283601.985253194</v>
+        <v>0.209944579602042</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -4703,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -4718,36 +4085,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2479554983578336</v>
+        <v>-0.121601850011745</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.038781105601205e-07</v>
+        <v>3.356306112372601e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005512514041343754</v>
+        <v>0.0005793363541477956</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9427222205375115</v>
+        <v>0.9237769556990645</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9377999113649539</v>
+        <v>0.9172265378294528</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>21.38178141766208</v>
+        <v>64.08547403352793</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -4756,13 +4123,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -4771,7 +4138,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -4780,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1371807423385805</v>
+        <v>0.1289577990364618</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -4799,31 +4166,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08175536842081348</v>
+        <v>4.083800030990158</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -4842,31 +4209,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E5" t="n">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>12340.57866327308</v>
+        <v>-1.860651021433879</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -4885,31 +4252,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-883.9251350521241</v>
+        <v>-56.69035061900475</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -4928,22 +4295,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -4952,7 +4319,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>3694.904925234902</v>
+        <v>5.842212611290077</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -4971,31 +4338,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-5489.003011378645</v>
+        <v>99.31081752989469</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -5014,22 +4381,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E9" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -5038,7 +4405,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>2827.172844157617</v>
+        <v>-21.1692098931949</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -5057,22 +4424,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E10" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -5081,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>7.163652420715876</v>
+        <v>21.69935186612129</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -5100,22 +4467,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>-2</v>
+        <v>-13</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -5124,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.0394099671525507</v>
+        <v>17.79850145331665</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -5143,22 +4510,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -5167,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4500478203894852</v>
+        <v>-6.578291630414227</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -5267,13 +4634,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -5282,36 +4649,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2398055607284156</v>
+        <v>-0.1256284147388231</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.118550252950857e-07</v>
+        <v>3.519970545876168e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005584398134938855</v>
+        <v>0.0005932933967166807</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9412186572761163</v>
+        <v>0.9200600714376909</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9366619640417068</v>
+        <v>0.9138631777506901</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>24.14944752568307</v>
+        <v>72.44490105924146</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -5320,13 +4687,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -5335,7 +4702,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -5344,7 +4711,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1254857877789969</v>
+        <v>0.1631323703757113</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -5363,31 +4730,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06866694698379577</v>
+        <v>3.543292142029249</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -5406,31 +4773,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E5" t="n">
-        <v>-15</v>
+        <v>-2</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>12278.51883311704</v>
+        <v>-0.3856875066026975</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -5449,31 +4816,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-13</v>
+        <v>-5</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>4990.196399251082</v>
+        <v>-30.18247095186388</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -5492,31 +4859,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-9521.179612639316</v>
+        <v>102.3445510231265</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -5535,22 +4902,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E8" t="n">
-        <v>-11</v>
+        <v>-4</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -5559,7 +4926,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>6266.643433684771</v>
+        <v>2.288912292823944</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -5578,22 +4945,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E9" t="n">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -5602,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-1455.691806301563</v>
+        <v>-13.22820014621555</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -5621,13 +4988,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E10" t="n">
         <v>-7</v>
@@ -5636,7 +5003,7 @@
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -5645,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>9.959739124272714</v>
+        <v>14.79227948774759</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -5664,22 +5031,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>-2</v>
+        <v>-15</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -5688,7 +5055,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.01720297280349031</v>
+        <v>3.723280144366506</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -5791,10 +5158,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -5803,7 +5170,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -5812,27 +5179,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.132070600550532</v>
+        <v>-0.1202137139997532</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.057873833430351e-07</v>
+        <v>3.632405533560607e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.000552980454756798</v>
+        <v>0.0006026944112533819</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9423623430024303</v>
+        <v>0.9175066282295004</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9383720436718292</v>
+        <v>0.9117955486453888</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>20.43205538077109</v>
+        <v>78.11961155033715</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -5841,13 +5208,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -5856,16 +5223,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2573604926355957</v>
+        <v>0.166514502013505</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -5884,31 +5251,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06777460098515464</v>
+        <v>25.26093505808283</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -5927,31 +5294,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.07709491746170623</v>
+        <v>-84.67064293787527</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -5970,31 +5337,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07396580303397618</v>
+        <v>184.576042057699</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6013,22 +5380,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -6037,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.248363482338054</v>
+        <v>-0.4039366661972175</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6056,31 +5423,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E8" t="n">
-        <v>-13</v>
+        <v>-4</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-74043.03093911547</v>
+        <v>2.323433799632984</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -6099,31 +5466,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E9" t="n">
-        <v>-14</v>
+        <v>-6</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>333093.673569847</v>
+        <v>-13.04238578376098</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -6142,31 +5509,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E10" t="n">
-        <v>-15</v>
+        <v>-7</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-361221.3016145113</v>
+        <v>14.44136366246221</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -6266,13 +5633,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -6281,36 +5648,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2567979315125899</v>
+        <v>-0.127650053894742</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.065297229101696e-07</v>
+        <v>3.766935769398183e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005536512647056535</v>
+        <v>0.0006137536777403606</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9422224199196712</v>
+        <v>0.9144513931637054</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9386940180827045</v>
+        <v>0.9092270507614889</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>19.86773523512653</v>
+        <v>85.11547521976759</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -6319,10 +5686,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -6334,16 +5701,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1323129899458927</v>
+        <v>0.4747615753411724</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -6362,22 +5729,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -6386,7 +5753,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06822454287651925</v>
+        <v>0.2050959104953551</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -6405,22 +5772,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-13</v>
+        <v>-2</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -6429,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>23834.94724332687</v>
+        <v>-0.5624166726934092</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6451,10 +5818,10 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E6" t="n">
         <v>-4</v>
@@ -6463,7 +5830,7 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -6472,7 +5839,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.08369106963261315</v>
+        <v>-0.6421285621201123</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6491,22 +5858,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -6515,7 +5882,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-8897.464671224803</v>
+        <v>9.068868979487062</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6534,22 +5901,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E8" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -6558,7 +5925,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.07434096657021003</v>
+        <v>1.669042892595641</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -6577,22 +5944,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>-9</v>
+        <v>-15</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -6601,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7937281163799831</v>
+        <v>4.716373962512681</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -6701,13 +6068,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -6716,36 +6083,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2564946637107312</v>
+        <v>-0.1210093338140933</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.201345098104696e-07</v>
+        <v>3.962852438183825e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005658043034570076</v>
+        <v>0.0006295119091950386</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9396580628415216</v>
+        <v>0.9100020478345979</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9364581116285721</v>
+        <v>0.9052294291591599</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>25.39133434401505</v>
+        <v>95.6580810143257</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -6754,10 +6121,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -6769,16 +6136,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1303159671201949</v>
+        <v>0.3748883631942299</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -6797,22 +6164,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -6821,7 +6188,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06672669711568327</v>
+        <v>0.2522853765343039</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -6840,22 +6207,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -6864,7 +6231,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>31103.21235029309</v>
+        <v>-1.02732614045109</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6883,22 +6250,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -6907,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-89.73216247525298</v>
+        <v>29.14183522032434</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6929,10 +6296,10 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
         <v>-3</v>
@@ -6941,7 +6308,7 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -6950,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.02536376137928198</v>
+        <v>-0.3475117678949047</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6969,22 +6336,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E8" t="n">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -6993,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0688696297231754</v>
+        <v>2.050914511058999</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
